--- a/test/prods2.xlsx
+++ b/test/prods2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Название</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>AquaTools</t>
-  </si>
-  <si>
-    <t>https://aquatools.com.ua/nasosnaya-stanciya-optima-tps-60-mini.html</t>
   </si>
   <si>
     <t>3 метра</t>
@@ -504,7 +501,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="G2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,62 +579,60 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -653,16 +648,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="L2" r:id="rId4"/>
-    <hyperlink ref="O2" r:id="rId5"/>
-    <hyperlink ref="R2" r:id="rId6"/>
-    <hyperlink ref="C3" r:id="rId7"/>
-    <hyperlink ref="F3" r:id="rId8"/>
-    <hyperlink ref="I3" r:id="rId9"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="L2" r:id="rId3"/>
+    <hyperlink ref="O2" r:id="rId4"/>
+    <hyperlink ref="R2" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="I3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>